--- a/Team-Data/2012-13/1-1-2012-13.xlsx
+++ b/Team-Data/2012-13/1-1-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,46 +733,46 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" t="n">
         <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>0.667</v>
+        <v>0.655</v>
       </c>
       <c r="H2" t="n">
         <v>48.7</v>
       </c>
       <c r="I2" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J2" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="K2" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L2" t="n">
         <v>8.9</v>
       </c>
       <c r="M2" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0.38</v>
+        <v>0.379</v>
       </c>
       <c r="O2" t="n">
-        <v>13.6</v>
+        <v>13.9</v>
       </c>
       <c r="P2" t="n">
-        <v>19.2</v>
+        <v>19.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.708</v>
+        <v>0.711</v>
       </c>
       <c r="R2" t="n">
         <v>10.1</v>
@@ -717,10 +784,10 @@
         <v>40.9</v>
       </c>
       <c r="U2" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="V2" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="W2" t="n">
         <v>8.9</v>
@@ -732,25 +799,25 @@
         <v>4.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="AA2" t="n">
         <v>19.1</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="AD2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
         <v>7</v>
       </c>
       <c r="AF2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG2" t="n">
         <v>8</v>
@@ -768,19 +835,19 @@
         <v>7</v>
       </c>
       <c r="AL2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM2" t="n">
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
         <v>28</v>
       </c>
       <c r="AP2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
         <v>28</v>
@@ -795,16 +862,16 @@
         <v>23</v>
       </c>
       <c r="AU2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AW2" t="n">
         <v>4</v>
       </c>
       <c r="AX2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
         <v>8</v>
@@ -813,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-1-2012-13</t>
+          <t>2013-01-01</t>
         </is>
       </c>
     </row>
@@ -926,16 +993,16 @@
         <v>-2.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG3" t="n">
         <v>19</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>20</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
@@ -956,10 +1023,10 @@
         <v>28</v>
       </c>
       <c r="AN3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO3" t="n">
         <v>17</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>15</v>
       </c>
       <c r="AP3" t="n">
         <v>22</v>
@@ -980,7 +1047,7 @@
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AW3" t="n">
         <v>8</v>
@@ -995,7 +1062,7 @@
         <v>23</v>
       </c>
       <c r="BA3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB3" t="n">
         <v>17</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-1-2012-13</t>
+          <t>2013-01-01</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-0.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>12</v>
@@ -1120,16 +1187,16 @@
         <v>16</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI4" t="n">
         <v>28</v>
       </c>
       <c r="AJ4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
         <v>12</v>
@@ -1153,13 +1220,13 @@
         <v>10</v>
       </c>
       <c r="AS4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT4" t="n">
         <v>22</v>
       </c>
       <c r="AU4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV4" t="n">
         <v>8</v>
@@ -1168,7 +1235,7 @@
         <v>25</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY4" t="n">
         <v>5</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-1-2012-13</t>
+          <t>2013-01-01</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>27</v>
@@ -1332,7 +1399,7 @@
         <v>20</v>
       </c>
       <c r="AR5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS5" t="n">
         <v>20</v>
@@ -1347,16 +1414,16 @@
         <v>7</v>
       </c>
       <c r="AW5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AX5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY5" t="n">
         <v>30</v>
       </c>
       <c r="AZ5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA5" t="n">
         <v>6</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-1-2012-13</t>
+          <t>2013-01-01</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>0.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1526,10 +1593,10 @@
         <v>10</v>
       </c>
       <c r="AV6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX6" t="n">
         <v>17</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-1-2012-13</t>
+          <t>2013-01-01</t>
         </is>
       </c>
     </row>
@@ -1654,19 +1721,19 @@
         <v>-5.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
       </c>
       <c r="AF7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG7" t="n">
         <v>29</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>24</v>
@@ -1690,7 +1757,7 @@
         <v>24</v>
       </c>
       <c r="AP7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
         <v>23</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-1-2012-13</t>
+          <t>2013-01-01</t>
         </is>
       </c>
     </row>
@@ -1758,46 +1825,46 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="n">
         <v>19</v>
       </c>
       <c r="G8" t="n">
-        <v>0.406</v>
+        <v>0.387</v>
       </c>
       <c r="H8" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="I8" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J8" t="n">
-        <v>83.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M8" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="N8" t="n">
-        <v>0.355</v>
+        <v>0.352</v>
       </c>
       <c r="O8" t="n">
-        <v>16.9</v>
+        <v>17.1</v>
       </c>
       <c r="P8" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="R8" t="n">
         <v>9.5</v>
@@ -1809,34 +1876,34 @@
         <v>41.3</v>
       </c>
       <c r="U8" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V8" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W8" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
         <v>5.3</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>98.5</v>
+        <v>98.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>-4.4</v>
+        <v>-4.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>21</v>
@@ -1848,34 +1915,34 @@
         <v>21</v>
       </c>
       <c r="AH8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK8" t="n">
         <v>14</v>
       </c>
       <c r="AL8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM8" t="n">
         <v>14</v>
       </c>
       <c r="AN8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR8" t="n">
         <v>27</v>
@@ -1884,28 +1951,28 @@
         <v>11</v>
       </c>
       <c r="AT8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV8" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AW8" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AX8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY8" t="n">
         <v>7</v>
       </c>
       <c r="AZ8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB8" t="n">
         <v>11</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-1-2012-13</t>
+          <t>2013-01-01</t>
         </is>
       </c>
     </row>
@@ -1940,88 +2007,88 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" t="n">
         <v>15</v>
       </c>
       <c r="G9" t="n">
-        <v>0.545</v>
+        <v>0.531</v>
       </c>
       <c r="H9" t="n">
         <v>48.3</v>
       </c>
       <c r="I9" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="J9" t="n">
         <v>84.40000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.465</v>
+        <v>0.466</v>
       </c>
       <c r="L9" t="n">
         <v>6.2</v>
       </c>
       <c r="M9" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="N9" t="n">
-        <v>0.33</v>
+        <v>0.331</v>
       </c>
       <c r="O9" t="n">
-        <v>16.9</v>
+        <v>17.1</v>
       </c>
       <c r="P9" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.681</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="R9" t="n">
         <v>13.9</v>
       </c>
       <c r="S9" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T9" t="n">
-        <v>46.3</v>
+        <v>46.2</v>
       </c>
       <c r="U9" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="V9" t="n">
         <v>15.6</v>
       </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X9" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Y9" t="n">
         <v>6.7</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>101.6</v>
+        <v>101.9</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF9" t="n">
         <v>15</v>
@@ -2030,7 +2097,7 @@
         <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
         <v>2</v>
@@ -2051,7 +2118,7 @@
         <v>28</v>
       </c>
       <c r="AO9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AP9" t="n">
         <v>7</v>
@@ -2063,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT9" t="n">
         <v>1</v>
@@ -2072,28 +2139,28 @@
         <v>5</v>
       </c>
       <c r="AV9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AW9" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AX9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY9" t="n">
         <v>27</v>
       </c>
       <c r="AZ9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB9" t="n">
         <v>8</v>
       </c>
       <c r="BC9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-1-2012-13</t>
+          <t>2013-01-01</t>
         </is>
       </c>
     </row>
@@ -2122,37 +2189,37 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" t="n">
         <v>22</v>
       </c>
       <c r="G10" t="n">
-        <v>0.353</v>
+        <v>0.333</v>
       </c>
       <c r="H10" t="n">
         <v>48.6</v>
       </c>
       <c r="I10" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J10" t="n">
-        <v>81</v>
+        <v>81.2</v>
       </c>
       <c r="K10" t="n">
-        <v>0.442</v>
+        <v>0.44</v>
       </c>
       <c r="L10" t="n">
         <v>6.3</v>
       </c>
       <c r="M10" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="N10" t="n">
-        <v>0.382</v>
+        <v>0.381</v>
       </c>
       <c r="O10" t="n">
         <v>17.2</v>
@@ -2161,7 +2228,7 @@
         <v>23.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.722</v>
+        <v>0.72</v>
       </c>
       <c r="R10" t="n">
         <v>12.5</v>
@@ -2170,58 +2237,58 @@
         <v>30.9</v>
       </c>
       <c r="T10" t="n">
-        <v>43.4</v>
+        <v>43.3</v>
       </c>
       <c r="U10" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V10" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W10" t="n">
         <v>6</v>
       </c>
       <c r="X10" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y10" t="n">
         <v>5.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="AA10" t="n">
         <v>20.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>95.09999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.5</v>
+        <v>-1.7</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF10" t="n">
         <v>26</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
         <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
         <v>22</v>
@@ -2239,7 +2306,7 @@
         <v>9</v>
       </c>
       <c r="AQ10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR10" t="n">
         <v>7</v>
@@ -2254,13 +2321,13 @@
         <v>24</v>
       </c>
       <c r="AV10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW10" t="n">
         <v>29</v>
       </c>
       <c r="AX10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY10" t="n">
         <v>22</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-1-2012-13</t>
+          <t>2013-01-01</t>
         </is>
       </c>
     </row>
@@ -2382,16 +2449,16 @@
         <v>2.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>4</v>
       </c>
       <c r="AF11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH11" t="n">
         <v>7</v>
@@ -2409,7 +2476,7 @@
         <v>8</v>
       </c>
       <c r="AM11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN11" t="n">
         <v>5</v>
@@ -2418,7 +2485,7 @@
         <v>13</v>
       </c>
       <c r="AP11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ11" t="n">
         <v>6</v>
@@ -2457,7 +2524,7 @@
         <v>9</v>
       </c>
       <c r="BC11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-1-2012-13</t>
+          <t>2013-01-01</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>2</v>
       </c>
       <c r="AD12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE12" t="n">
         <v>10</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>11</v>
       </c>
       <c r="AF12" t="n">
         <v>13</v>
@@ -2576,7 +2643,7 @@
         <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
         <v>7</v>
@@ -2585,7 +2652,7 @@
         <v>7</v>
       </c>
       <c r="AK12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL12" t="n">
         <v>2</v>
@@ -2594,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO12" t="n">
         <v>3</v>
@@ -2603,7 +2670,7 @@
         <v>4</v>
       </c>
       <c r="AQ12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR12" t="n">
         <v>21</v>
@@ -2639,7 +2706,7 @@
         <v>2</v>
       </c>
       <c r="BC12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-1-2012-13</t>
+          <t>2013-01-01</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>1.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
         <v>9</v>
@@ -2758,7 +2825,7 @@
         <v>9</v>
       </c>
       <c r="AH13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2770,16 +2837,16 @@
         <v>27</v>
       </c>
       <c r="AL13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM13" t="n">
         <v>18</v>
       </c>
       <c r="AN13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP13" t="n">
         <v>11</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-1-2012-13</t>
+          <t>2013-01-01</t>
         </is>
       </c>
     </row>
@@ -2850,58 +2917,58 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" t="n">
         <v>25</v>
       </c>
       <c r="F14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>0.781</v>
+        <v>0.806</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>38.5</v>
+        <v>38.8</v>
       </c>
       <c r="J14" t="n">
         <v>80.7</v>
       </c>
       <c r="K14" t="n">
-        <v>0.478</v>
+        <v>0.481</v>
       </c>
       <c r="L14" t="n">
         <v>7.1</v>
       </c>
       <c r="M14" t="n">
-        <v>20.4</v>
+        <v>20.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.347</v>
+        <v>0.355</v>
       </c>
       <c r="O14" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P14" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.711</v>
+        <v>0.721</v>
       </c>
       <c r="R14" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S14" t="n">
         <v>30.5</v>
       </c>
       <c r="T14" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U14" t="n">
-        <v>23.4</v>
+        <v>23.7</v>
       </c>
       <c r="V14" t="n">
         <v>14.5</v>
@@ -2916,49 +2983,49 @@
         <v>4.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>101.6</v>
+        <v>102.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.300000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
         <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
         <v>30</v>
       </c>
       <c r="AI14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ14" t="n">
         <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL14" t="n">
         <v>13</v>
       </c>
       <c r="AM14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AO14" t="n">
         <v>9</v>
@@ -2967,10 +3034,10 @@
         <v>8</v>
       </c>
       <c r="AQ14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS14" t="n">
         <v>18</v>
@@ -2979,10 +3046,10 @@
         <v>18</v>
       </c>
       <c r="AU14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -2994,13 +3061,13 @@
         <v>9</v>
       </c>
       <c r="AZ14" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BA14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-1-2012-13</t>
+          <t>2013-01-01</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" t="n">
-        <v>0.484</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="n">
         <v>48.2</v>
@@ -3050,73 +3117,73 @@
         <v>36.8</v>
       </c>
       <c r="J15" t="n">
-        <v>81.2</v>
+        <v>80.8</v>
       </c>
       <c r="K15" t="n">
-        <v>0.453</v>
+        <v>0.455</v>
       </c>
       <c r="L15" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="M15" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0.358</v>
+        <v>0.364</v>
       </c>
       <c r="O15" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="P15" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="R15" t="n">
         <v>13.1</v>
       </c>
       <c r="S15" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="T15" t="n">
-        <v>46.1</v>
+        <v>45.9</v>
       </c>
       <c r="U15" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V15" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="W15" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X15" t="n">
         <v>5.7</v>
       </c>
       <c r="Y15" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.8</v>
+        <v>103</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG15" t="n">
         <v>17</v>
@@ -3125,22 +3192,22 @@
         <v>28</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM15" t="n">
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AO15" t="n">
         <v>2</v>
@@ -3155,16 +3222,16 @@
         <v>5</v>
       </c>
       <c r="AS15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU15" t="n">
         <v>19</v>
       </c>
       <c r="AV15" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AW15" t="n">
         <v>20</v>
@@ -3173,10 +3240,10 @@
         <v>8</v>
       </c>
       <c r="AY15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ15" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-1-2012-13</t>
+          <t>2013-01-01</t>
         </is>
       </c>
     </row>
@@ -3292,22 +3359,22 @@
         <v>4.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF16" t="n">
         <v>5</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH16" t="n">
         <v>18</v>
       </c>
       <c r="AI16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ16" t="n">
         <v>9</v>
@@ -3322,10 +3389,10 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP16" t="n">
         <v>21</v>
@@ -3337,13 +3404,13 @@
         <v>2</v>
       </c>
       <c r="AS16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT16" t="n">
         <v>12</v>
       </c>
       <c r="AU16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV16" t="n">
         <v>18</v>
@@ -3358,7 +3425,7 @@
         <v>24</v>
       </c>
       <c r="AZ16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA16" t="n">
         <v>11</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-1-2012-13</t>
+          <t>2013-01-01</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>4.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
@@ -3489,7 +3556,7 @@
         <v>19</v>
       </c>
       <c r="AI17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-1-2012-13</t>
+          <t>2013-01-01</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-0.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>12</v>
@@ -3707,7 +3774,7 @@
         <v>13</v>
       </c>
       <c r="AU18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV18" t="n">
         <v>6</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-1-2012-13</t>
+          <t>2013-01-01</t>
         </is>
       </c>
     </row>
@@ -3841,13 +3908,13 @@
         <v>30</v>
       </c>
       <c r="AE19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF19" t="n">
         <v>9</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH19" t="n">
         <v>26</v>
@@ -3877,7 +3944,7 @@
         <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR19" t="n">
         <v>3</v>
@@ -3886,13 +3953,13 @@
         <v>8</v>
       </c>
       <c r="AT19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU19" t="n">
         <v>14</v>
       </c>
       <c r="AV19" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AW19" t="n">
         <v>15</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-1-2012-13</t>
+          <t>2013-01-01</t>
         </is>
       </c>
     </row>
@@ -3942,64 +4009,64 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G20" t="n">
-        <v>0.226</v>
+        <v>0.233</v>
       </c>
       <c r="H20" t="n">
         <v>48.5</v>
       </c>
       <c r="I20" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="J20" t="n">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="K20" t="n">
         <v>0.441</v>
       </c>
       <c r="L20" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M20" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="N20" t="n">
-        <v>0.38</v>
+        <v>0.376</v>
       </c>
       <c r="O20" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="P20" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="R20" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S20" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T20" t="n">
-        <v>40.7</v>
+        <v>40.5</v>
       </c>
       <c r="U20" t="n">
         <v>20.9</v>
       </c>
       <c r="V20" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W20" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X20" t="n">
         <v>5.5</v>
@@ -4008,73 +4075,73 @@
         <v>6.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>91.40000000000001</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>-6</v>
+        <v>-5.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
       </c>
       <c r="AF20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG20" t="n">
         <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI20" t="n">
         <v>27</v>
       </c>
       <c r="AJ20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL20" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AM20" t="n">
         <v>21</v>
       </c>
       <c r="AN20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP20" t="n">
         <v>28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR20" t="n">
         <v>20</v>
       </c>
       <c r="AS20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW20" t="n">
         <v>28</v>
@@ -4086,10 +4153,10 @@
         <v>28</v>
       </c>
       <c r="AZ20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB20" t="n">
         <v>29</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-1-2012-13</t>
+          <t>2013-01-01</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" t="n">
         <v>21</v>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" t="n">
-        <v>0.677</v>
+        <v>0.7</v>
       </c>
       <c r="H21" t="n">
         <v>48.2</v>
@@ -4151,31 +4218,31 @@
         <v>11.3</v>
       </c>
       <c r="M21" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="N21" t="n">
-        <v>0.388</v>
+        <v>0.393</v>
       </c>
       <c r="O21" t="n">
         <v>15.9</v>
       </c>
       <c r="P21" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="Q21" t="n">
         <v>0.75</v>
       </c>
       <c r="R21" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S21" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="T21" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="U21" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V21" t="n">
         <v>11</v>
@@ -4184,34 +4251,34 @@
         <v>8.699999999999999</v>
       </c>
       <c r="X21" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Z21" t="n">
         <v>18.8</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AB21" t="n">
-        <v>102.2</v>
+        <v>102.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
         <v>4</v>
       </c>
       <c r="AF21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH21" t="n">
         <v>28</v>
@@ -4238,22 +4305,22 @@
         <v>23</v>
       </c>
       <c r="AP21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ21" t="n">
         <v>18</v>
       </c>
       <c r="AR21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT21" t="n">
         <v>28</v>
       </c>
       <c r="AU21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
@@ -4274,7 +4341,7 @@
         <v>20</v>
       </c>
       <c r="BB21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC21" t="n">
         <v>4</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-1-2012-13</t>
+          <t>2013-01-01</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4393,7 +4460,7 @@
         <v>1</v>
       </c>
       <c r="AG22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH22" t="n">
         <v>11</v>
@@ -4405,7 +4472,7 @@
         <v>29</v>
       </c>
       <c r="AK22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL22" t="n">
         <v>11</v>
@@ -4429,7 +4496,7 @@
         <v>22</v>
       </c>
       <c r="AS22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT22" t="n">
         <v>7</v>
@@ -4438,7 +4505,7 @@
         <v>13</v>
       </c>
       <c r="AV22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW22" t="n">
         <v>16</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-1-2012-13</t>
+          <t>2013-01-01</t>
         </is>
       </c>
     </row>
@@ -4566,22 +4633,22 @@
         <v>-2.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF23" t="n">
         <v>21</v>
       </c>
       <c r="AG23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH23" t="n">
         <v>22</v>
       </c>
-      <c r="AH23" t="n">
-        <v>21</v>
-      </c>
       <c r="AI23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ23" t="n">
         <v>17</v>
@@ -4629,16 +4696,16 @@
         <v>25</v>
       </c>
       <c r="AY23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ23" t="n">
         <v>10</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>9</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC23" t="n">
         <v>22</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-1-2012-13</t>
+          <t>2013-01-01</t>
         </is>
       </c>
     </row>
@@ -4670,34 +4737,34 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" t="n">
         <v>17</v>
       </c>
       <c r="G24" t="n">
-        <v>0.469</v>
+        <v>0.452</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="J24" t="n">
-        <v>84</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L24" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M24" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="N24" t="n">
         <v>0.359</v>
@@ -4709,19 +4776,19 @@
         <v>18.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.724</v>
+        <v>0.727</v>
       </c>
       <c r="R24" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="S24" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="T24" t="n">
-        <v>41.8</v>
+        <v>41.5</v>
       </c>
       <c r="U24" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="V24" t="n">
         <v>12.4</v>
@@ -4730,55 +4797,55 @@
         <v>7.7</v>
       </c>
       <c r="X24" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y24" t="n">
         <v>4.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AA24" t="n">
         <v>17.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>93.5</v>
+        <v>93.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>-2.4</v>
+        <v>-2.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AF24" t="n">
         <v>19</v>
       </c>
       <c r="AG24" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ24" t="n">
         <v>5</v>
       </c>
       <c r="AK24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL24" t="n">
         <v>18</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>17</v>
       </c>
       <c r="AM24" t="n">
         <v>22</v>
       </c>
       <c r="AN24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO24" t="n">
         <v>29</v>
@@ -4787,10 +4854,10 @@
         <v>29</v>
       </c>
       <c r="AQ24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS24" t="n">
         <v>19</v>
@@ -4799,7 +4866,7 @@
         <v>19</v>
       </c>
       <c r="AU24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV24" t="n">
         <v>2</v>
@@ -4808,10 +4875,10 @@
         <v>19</v>
       </c>
       <c r="AX24" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ24" t="n">
         <v>8</v>
@@ -4820,7 +4887,7 @@
         <v>29</v>
       </c>
       <c r="BB24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC24" t="n">
         <v>21</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-1-2012-13</t>
+          <t>2013-01-01</t>
         </is>
       </c>
     </row>
@@ -4930,16 +4997,16 @@
         <v>-4.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF25" t="n">
         <v>25</v>
       </c>
       <c r="AG25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH25" t="n">
         <v>16</v>
@@ -4954,7 +5021,7 @@
         <v>12</v>
       </c>
       <c r="AL25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM25" t="n">
         <v>17</v>
@@ -4963,10 +5030,10 @@
         <v>26</v>
       </c>
       <c r="AO25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ25" t="n">
         <v>17</v>
@@ -4987,7 +5054,7 @@
         <v>4</v>
       </c>
       <c r="AW25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX25" t="n">
         <v>9</v>
@@ -4999,7 +5066,7 @@
         <v>21</v>
       </c>
       <c r="BA25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB25" t="n">
         <v>13</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-1-2012-13</t>
+          <t>2013-01-01</t>
         </is>
       </c>
     </row>
@@ -5034,106 +5101,106 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F26" t="n">
         <v>14</v>
       </c>
       <c r="G26" t="n">
-        <v>0.533</v>
+        <v>0.517</v>
       </c>
       <c r="H26" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="I26" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="J26" t="n">
         <v>83</v>
       </c>
       <c r="K26" t="n">
-        <v>0.438</v>
+        <v>0.436</v>
       </c>
       <c r="L26" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M26" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="N26" t="n">
         <v>0.337</v>
       </c>
       <c r="O26" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P26" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.766</v>
+        <v>0.769</v>
       </c>
       <c r="R26" t="n">
         <v>12</v>
       </c>
       <c r="S26" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T26" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="U26" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V26" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W26" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X26" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="Y26" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA26" t="n">
         <v>19.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.2</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>-1.9</v>
+        <v>-2.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE26" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF26" t="n">
         <v>13</v>
       </c>
       <c r="AG26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH26" t="n">
         <v>5</v>
       </c>
       <c r="AI26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ26" t="n">
         <v>13</v>
       </c>
       <c r="AK26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL26" t="n">
         <v>7</v>
@@ -5148,22 +5215,22 @@
         <v>21</v>
       </c>
       <c r="AP26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ26" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AR26" t="n">
         <v>11</v>
       </c>
       <c r="AS26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV26" t="n">
         <v>14</v>
@@ -5172,16 +5239,16 @@
         <v>11</v>
       </c>
       <c r="AX26" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AY26" t="n">
         <v>4</v>
       </c>
       <c r="AZ26" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB26" t="n">
         <v>14</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-1-2012-13</t>
+          <t>2013-01-01</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E27" t="n">
         <v>11</v>
       </c>
       <c r="F27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G27" t="n">
-        <v>0.355</v>
+        <v>0.367</v>
       </c>
       <c r="H27" t="n">
         <v>48.3</v>
@@ -5234,19 +5301,19 @@
         <v>36.5</v>
       </c>
       <c r="J27" t="n">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="K27" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L27" t="n">
         <v>7</v>
       </c>
       <c r="M27" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="N27" t="n">
-        <v>0.363</v>
+        <v>0.364</v>
       </c>
       <c r="O27" t="n">
         <v>16.8</v>
@@ -5258,13 +5325,13 @@
         <v>0.771</v>
       </c>
       <c r="R27" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S27" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="T27" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U27" t="n">
         <v>19.8</v>
@@ -5273,19 +5340,19 @@
         <v>14.5</v>
       </c>
       <c r="W27" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X27" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Z27" t="n">
         <v>21.1</v>
       </c>
       <c r="AA27" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB27" t="n">
         <v>96.8</v>
@@ -5294,13 +5361,13 @@
         <v>-5</v>
       </c>
       <c r="AD27" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG27" t="n">
         <v>23</v>
@@ -5312,10 +5379,10 @@
         <v>17</v>
       </c>
       <c r="AJ27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK27" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL27" t="n">
         <v>14</v>
@@ -5324,7 +5391,7 @@
         <v>16</v>
       </c>
       <c r="AN27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO27" t="n">
         <v>19</v>
@@ -5339,16 +5406,16 @@
         <v>16</v>
       </c>
       <c r="AS27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU27" t="n">
         <v>28</v>
       </c>
       <c r="AV27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW27" t="n">
         <v>9</v>
@@ -5360,10 +5427,10 @@
         <v>26</v>
       </c>
       <c r="AZ27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA27" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BB27" t="n">
         <v>15</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-1-2012-13</t>
+          <t>2013-01-01</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>9.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5512,7 +5579,7 @@
         <v>18</v>
       </c>
       <c r="AP28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ28" t="n">
         <v>5</v>
@@ -5536,16 +5603,16 @@
         <v>6</v>
       </c>
       <c r="AX28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ28" t="n">
         <v>2</v>
       </c>
       <c r="BA28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-1-2012-13</t>
+          <t>2013-01-01</t>
         </is>
       </c>
     </row>
@@ -5658,16 +5725,16 @@
         <v>-3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF29" t="n">
         <v>24</v>
       </c>
-      <c r="AF29" t="n">
-        <v>23</v>
-      </c>
       <c r="AG29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH29" t="n">
         <v>2</v>
@@ -5697,28 +5764,28 @@
         <v>13</v>
       </c>
       <c r="AQ29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AR29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT29" t="n">
         <v>26</v>
       </c>
       <c r="AU29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV29" t="n">
         <v>3</v>
       </c>
       <c r="AW29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-1-2012-13</t>
+          <t>2013-01-01</t>
         </is>
       </c>
     </row>
@@ -5840,10 +5907,10 @@
         <v>-1.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF30" t="n">
         <v>19</v>
@@ -5879,7 +5946,7 @@
         <v>6</v>
       </c>
       <c r="AQ30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR30" t="n">
         <v>6</v>
@@ -5897,7 +5964,7 @@
         <v>17</v>
       </c>
       <c r="AW30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX30" t="n">
         <v>7</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-1-2012-13</t>
+          <t>2013-01-01</t>
         </is>
       </c>
     </row>
@@ -5944,49 +6011,49 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
       </c>
       <c r="F31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G31" t="n">
-        <v>0.138</v>
+        <v>0.143</v>
       </c>
       <c r="H31" t="n">
         <v>48.9</v>
       </c>
       <c r="I31" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="J31" t="n">
-        <v>83.09999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="K31" t="n">
         <v>0.406</v>
       </c>
       <c r="L31" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M31" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="N31" t="n">
-        <v>0.314</v>
+        <v>0.311</v>
       </c>
       <c r="O31" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="P31" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.755</v>
+        <v>0.754</v>
       </c>
       <c r="R31" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S31" t="n">
         <v>32.3</v>
@@ -5995,34 +6062,34 @@
         <v>43.9</v>
       </c>
       <c r="U31" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V31" t="n">
         <v>15.3</v>
       </c>
       <c r="W31" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="X31" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y31" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>88.90000000000001</v>
+        <v>88.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.9</v>
+        <v>-7.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
@@ -6040,16 +6107,16 @@
         <v>30</v>
       </c>
       <c r="AJ31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK31" t="n">
         <v>30</v>
       </c>
       <c r="AL31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN31" t="n">
         <v>29</v>
@@ -6067,19 +6134,19 @@
         <v>15</v>
       </c>
       <c r="AS31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT31" t="n">
         <v>6</v>
       </c>
       <c r="AU31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV31" t="n">
         <v>20</v>
       </c>
       <c r="AW31" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AX31" t="n">
         <v>22</v>
@@ -6091,7 +6158,7 @@
         <v>22</v>
       </c>
       <c r="BA31" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BB31" t="n">
         <v>30</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-1-2012-13</t>
+          <t>2013-01-01</t>
         </is>
       </c>
     </row>
